--- a/tests/server/fixtures/file-structure/EOHHS-075-06302020-missingContractsTab-v1.xlsx
+++ b/tests/server/fixtures/file-structure/EOHHS-075-06302020-missingContractsTab-v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnmclaughlin/git/usdr/cares-reporter/tests/server/fixtures/file-structure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED58A52F-2949-FF43-8A39-A66A9360FB74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA37806C-0576-6E44-B13B-D65533DA15C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="-18420" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1940" yWindow="-18420" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="329">
   <si>
     <t>Agency Code</t>
   </si>
@@ -1027,6 +1027,9 @@
   <si>
     <t>ID + Duns</t>
   </si>
+  <si>
+    <t>Sum of expenses</t>
+  </si>
 </sst>
 </file>
 
@@ -1036,7 +1039,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1099,6 +1102,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1250,7 +1259,7 @@
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1328,6 +1337,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -11011,10 +11021,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AQ998"/>
+  <dimension ref="A1:AR998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AR1" sqref="AR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11036,7 +11046,7 @@
     <col min="33" max="43" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:44" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -11166,8 +11176,11 @@
       <c r="AQ1" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AR1" s="55" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
         <v>233</v>
       </c>
@@ -11246,7 +11259,7 @@
       <c r="AP2" s="5"/>
       <c r="AQ2" s="5"/>
     </row>
-    <row r="3" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Y3" s="5"/>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
@@ -11267,7 +11280,7 @@
       <c r="AP3" s="5"/>
       <c r="AQ3" s="5"/>
     </row>
-    <row r="4" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z4" s="5"/>
       <c r="AB4" s="5"/>
       <c r="AD4" s="5"/>
@@ -11284,7 +11297,7 @@
       <c r="AP4" s="5"/>
       <c r="AQ4" s="5"/>
     </row>
-    <row r="5" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z5" s="5"/>
       <c r="AB5" s="5"/>
       <c r="AD5" s="5"/>
@@ -11301,7 +11314,7 @@
       <c r="AP5" s="5"/>
       <c r="AQ5" s="5"/>
     </row>
-    <row r="6" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z6" s="5"/>
       <c r="AB6" s="5"/>
       <c r="AD6" s="5"/>
@@ -11318,7 +11331,7 @@
       <c r="AP6" s="5"/>
       <c r="AQ6" s="5"/>
     </row>
-    <row r="7" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AD7" s="5"/>
@@ -11335,7 +11348,7 @@
       <c r="AP7" s="5"/>
       <c r="AQ7" s="5"/>
     </row>
-    <row r="8" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AD8" s="5"/>
@@ -11352,7 +11365,7 @@
       <c r="AP8" s="5"/>
       <c r="AQ8" s="5"/>
     </row>
-    <row r="9" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AD9" s="5"/>
@@ -11369,7 +11382,7 @@
       <c r="AP9" s="5"/>
       <c r="AQ9" s="5"/>
     </row>
-    <row r="10" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z10" s="5"/>
       <c r="AB10" s="5"/>
       <c r="AD10" s="5"/>
@@ -11386,7 +11399,7 @@
       <c r="AP10" s="5"/>
       <c r="AQ10" s="5"/>
     </row>
-    <row r="11" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z11" s="5"/>
       <c r="AB11" s="5"/>
       <c r="AD11" s="5"/>
@@ -11403,7 +11416,7 @@
       <c r="AP11" s="5"/>
       <c r="AQ11" s="5"/>
     </row>
-    <row r="12" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z12" s="5"/>
       <c r="AB12" s="5"/>
       <c r="AD12" s="5"/>
@@ -11420,7 +11433,7 @@
       <c r="AP12" s="5"/>
       <c r="AQ12" s="5"/>
     </row>
-    <row r="13" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z13" s="5"/>
       <c r="AB13" s="5"/>
       <c r="AD13" s="5"/>
@@ -11437,7 +11450,7 @@
       <c r="AP13" s="5"/>
       <c r="AQ13" s="5"/>
     </row>
-    <row r="14" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z14" s="5"/>
       <c r="AB14" s="5"/>
       <c r="AD14" s="5"/>
@@ -11454,7 +11467,7 @@
       <c r="AP14" s="5"/>
       <c r="AQ14" s="5"/>
     </row>
-    <row r="15" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z15" s="5"/>
       <c r="AB15" s="5"/>
       <c r="AD15" s="5"/>
@@ -11471,7 +11484,7 @@
       <c r="AP15" s="5"/>
       <c r="AQ15" s="5"/>
     </row>
-    <row r="16" spans="1:43" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:44" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Z16" s="5"/>
       <c r="AB16" s="5"/>
       <c r="AD16" s="5"/>
@@ -28194,10 +28207,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:AM1000"/>
+  <dimension ref="A1:AN1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AN1" sqref="AN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -28223,7 +28236,7 @@
     <col min="21" max="39" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -28341,8 +28354,11 @@
       <c r="AM1" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AN1" s="55" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="27" t="s">
         <v>235</v>
       </c>
@@ -28398,7 +28414,7 @@
         <v>50311.8</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="28" t="s">
         <v>239</v>
       </c>
@@ -28452,7 +28468,7 @@
         <v>50529.599999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27" t="s">
         <v>234</v>
       </c>
@@ -28508,7 +28524,7 @@
         <v>50856.3</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="28"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -28526,7 +28542,7 @@
       <c r="P5" s="30"/>
       <c r="AC5" s="30"/>
     </row>
-    <row r="6" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="27"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
@@ -28544,7 +28560,7 @@
       <c r="P6" s="29"/>
       <c r="AC6" s="29"/>
     </row>
-    <row r="7" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="28"/>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -28562,7 +28578,7 @@
       <c r="P7" s="30"/>
       <c r="AC7" s="30"/>
     </row>
-    <row r="8" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="27"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
@@ -28580,7 +28596,7 @@
       <c r="P8" s="29"/>
       <c r="AC8" s="29"/>
     </row>
-    <row r="9" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="28"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
@@ -28598,7 +28614,7 @@
       <c r="P9" s="30"/>
       <c r="AC9" s="30"/>
     </row>
-    <row r="10" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="27"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -28616,7 +28632,7 @@
       <c r="P10" s="29"/>
       <c r="AC10" s="29"/>
     </row>
-    <row r="11" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="28"/>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -28634,7 +28650,7 @@
       <c r="P11" s="30"/>
       <c r="AC11" s="30"/>
     </row>
-    <row r="12" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="27"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -28652,7 +28668,7 @@
       <c r="P12" s="29"/>
       <c r="AC12" s="29"/>
     </row>
-    <row r="13" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="28"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -28670,7 +28686,7 @@
       <c r="P13" s="30"/>
       <c r="AC13" s="30"/>
     </row>
-    <row r="14" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="27"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -28688,7 +28704,7 @@
       <c r="P14" s="29"/>
       <c r="AC14" s="29"/>
     </row>
-    <row r="15" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="28"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
@@ -28706,7 +28722,7 @@
       <c r="P15" s="30"/>
       <c r="AC15" s="30"/>
     </row>
-    <row r="16" spans="1:39" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:40" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="27"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
@@ -30719,10 +30735,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AE988"/>
+  <dimension ref="A1:AF988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -30749,7 +30765,7 @@
     <col min="22" max="31" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:32" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -30843,8 +30859,11 @@
       <c r="AE1" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF1" s="55" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="46" t="s">
         <v>242</v>
       </c>
@@ -30893,7 +30912,7 @@
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F3" s="9"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -30905,7 +30924,7 @@
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -30916,7 +30935,7 @@
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
@@ -30927,77 +30946,77 @@
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
     </row>
-    <row r="6" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N6" s="5"/>
       <c r="P6" s="5"/>
       <c r="R6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
     </row>
-    <row r="7" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N7" s="5"/>
       <c r="P7" s="5"/>
       <c r="R7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
     </row>
-    <row r="8" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N8" s="5"/>
       <c r="P8" s="5"/>
       <c r="R8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
     </row>
-    <row r="9" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N9" s="5"/>
       <c r="P9" s="5"/>
       <c r="R9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
     </row>
-    <row r="10" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N10" s="5"/>
       <c r="P10" s="5"/>
       <c r="R10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
     </row>
-    <row r="11" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N11" s="5"/>
       <c r="P11" s="5"/>
       <c r="R11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
     </row>
-    <row r="12" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N12" s="5"/>
       <c r="P12" s="5"/>
       <c r="R12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
     </row>
-    <row r="13" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N13" s="5"/>
       <c r="P13" s="5"/>
       <c r="R13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
     </row>
-    <row r="14" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N14" s="5"/>
       <c r="P14" s="5"/>
       <c r="R14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N15" s="5"/>
       <c r="P15" s="5"/>
       <c r="R15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
     </row>
-    <row r="16" spans="1:31" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N16" s="5"/>
       <c r="P16" s="5"/>
       <c r="R16" s="5"/>
@@ -37816,10 +37835,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AB997"/>
+  <dimension ref="A1:AC997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -37845,7 +37864,7 @@
     <col min="21" max="28" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="126" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" ht="126" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -37930,8 +37949,11 @@
       <c r="AB1" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC1" s="55" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="39" t="s">
         <v>237</v>
       </c>
@@ -37973,7 +37995,7 @@
       </c>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="40" t="s">
         <v>238</v>
       </c>
@@ -38013,7 +38035,7 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="39" t="s">
         <v>240</v>
       </c>
@@ -38056,84 +38078,84 @@
         <v>4823852.3849999998</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K5" s="5"/>
       <c r="M5" s="5"/>
       <c r="O5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K6" s="5"/>
       <c r="M6" s="5"/>
       <c r="O6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K7" s="5"/>
       <c r="M7" s="5"/>
       <c r="O7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K8" s="5"/>
       <c r="M8" s="5"/>
       <c r="O8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K9" s="5"/>
       <c r="M9" s="5"/>
       <c r="O9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K10" s="5"/>
       <c r="M10" s="45"/>
       <c r="O10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K11" s="5"/>
       <c r="M11" s="5"/>
       <c r="O11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K12" s="5"/>
       <c r="M12" s="5"/>
       <c r="O12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K13" s="5"/>
       <c r="M13" s="5"/>
       <c r="O13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K14" s="5"/>
       <c r="M14" s="5"/>
       <c r="O14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K15" s="5"/>
       <c r="M15" s="5"/>
       <c r="O15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K16" s="5"/>
       <c r="M16" s="5"/>
       <c r="O16" s="5"/>
